--- a/src/Tests/Templates/Contracts.xlsx
+++ b/src/Tests/Templates/Contracts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DirectumDev\rx-util-importdata-net-core\src\Tests\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Утилита\src\Tests\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="53">
   <si>
     <t>Содержание</t>
   </si>
@@ -160,12 +160,6 @@
     <t>Templates\TestDocs\testDoc.txt</t>
   </si>
   <si>
-    <t>17.05.2023</t>
-  </si>
-  <si>
-    <t>569</t>
-  </si>
-  <si>
     <t>Дело</t>
   </si>
   <si>
@@ -175,10 +169,19 @@
     <t>123. Тест</t>
   </si>
   <si>
-    <t>б/н</t>
-  </si>
-  <si>
     <t>Договор</t>
+  </si>
+  <si>
+    <t>24.03.2025</t>
+  </si>
+  <si>
+    <t>869</t>
+  </si>
+  <si>
+    <t>392</t>
+  </si>
+  <si>
+    <t>60</t>
   </si>
 </sst>
 </file>
@@ -451,10 +454,6 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -482,6 +481,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -834,7 +837,7 @@
   <dimension ref="A1:AA22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -879,16 +882,16 @@
       <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="33" t="s">
         <v>11</v>
       </c>
       <c r="J1" s="4" t="s">
@@ -915,17 +918,17 @@
       <c r="Q1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="R1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="S1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="T1" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="U1" s="39" t="s">
-        <v>48</v>
+      <c r="T1" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="U1" s="38" t="s">
+        <v>46</v>
       </c>
       <c r="V1" s="27" t="s">
         <v>38</v>
@@ -941,8 +944,8 @@
       <c r="AA1"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
-        <v>46</v>
+      <c r="A2" s="41">
+        <v>675</v>
       </c>
       <c r="B2" s="7">
         <v>40410</v>
@@ -951,21 +954,21 @@
         <v>30</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="35" t="s">
         <v>44</v>
       </c>
       <c r="J2" s="11">
@@ -988,23 +991,23 @@
       <c r="Q2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="35">
+      <c r="R2" s="34">
         <v>20</v>
       </c>
-      <c r="S2" s="37" t="s">
+      <c r="S2" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="37" t="s">
-        <v>49</v>
+      <c r="T2" s="36" t="s">
+        <v>47</v>
       </c>
       <c r="U2" s="11">
         <v>40410</v>
       </c>
-      <c r="V2" s="37" t="s">
+      <c r="V2" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="W2" s="38" t="s">
-        <v>45</v>
+      <c r="W2" s="37" t="s">
+        <v>49</v>
       </c>
       <c r="X2" t="s">
         <v>42</v>
@@ -1014,31 +1017,31 @@
       <c r="AA2"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="41">
+      <c r="B3" s="40">
         <v>45525</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="I3" s="36" t="s">
+      <c r="I3" s="35" t="s">
         <v>44</v>
       </c>
       <c r="J3" s="11">
@@ -1061,48 +1064,54 @@
       <c r="Q3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R3" s="35">
+      <c r="R3" s="34">
         <v>20</v>
       </c>
-      <c r="S3" s="37" t="s">
+      <c r="S3" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="37" t="s">
-        <v>49</v>
+      <c r="T3" s="36" t="s">
+        <v>47</v>
       </c>
       <c r="U3" s="11">
         <v>40410</v>
       </c>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="30"/>
+      <c r="V3" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="W3" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="X3" s="30" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B4" s="41">
+      <c r="A4" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="40">
         <v>45526</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="G4" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="35" t="s">
         <v>44</v>
       </c>
       <c r="J4" s="11">
@@ -1125,48 +1134,54 @@
       <c r="Q4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R4" s="35">
+      <c r="R4" s="34">
         <v>20</v>
       </c>
-      <c r="S4" s="37" t="s">
+      <c r="S4" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="37" t="s">
-        <v>49</v>
+      <c r="T4" s="36" t="s">
+        <v>47</v>
       </c>
       <c r="U4" s="11">
         <v>40410</v>
       </c>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="30"/>
+      <c r="V4" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="W4" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="X4" s="30" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="41">
+      <c r="A5" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="40">
         <v>45527</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="35" t="s">
+      <c r="G5" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="35" t="s">
         <v>44</v>
       </c>
       <c r="J5" s="11">
@@ -1189,21 +1204,27 @@
       <c r="Q5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="R5" s="35">
+      <c r="R5" s="34">
         <v>20</v>
       </c>
-      <c r="S5" s="37" t="s">
+      <c r="S5" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="T5" s="37" t="s">
-        <v>49</v>
+      <c r="T5" s="36" t="s">
+        <v>47</v>
       </c>
       <c r="U5" s="11">
         <v>40410</v>
       </c>
-      <c r="V5" s="28"/>
-      <c r="W5" s="28"/>
-      <c r="X5" s="29"/>
+      <c r="V5" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="W5" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="X5" s="29" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
@@ -1214,7 +1235,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="I6" s="32"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
       <c r="L6" s="12"/>
@@ -1240,7 +1261,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
-      <c r="I7" s="32"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="12"/>
@@ -1266,7 +1287,7 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="10"/>
-      <c r="I8" s="32"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
       <c r="L8" s="12"/>
@@ -1292,7 +1313,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="10"/>
-      <c r="I9" s="32"/>
+      <c r="I9" s="31"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="12"/>
@@ -1318,7 +1339,7 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="32"/>
+      <c r="I10" s="31"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
       <c r="L10" s="12"/>
@@ -1344,7 +1365,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="32"/>
+      <c r="I11" s="31"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="12"/>
@@ -1370,7 +1391,7 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="32"/>
+      <c r="I12" s="31"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="12"/>
@@ -1396,7 +1417,7 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="32"/>
+      <c r="I13" s="31"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="12"/>
@@ -1422,7 +1443,7 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="32"/>
+      <c r="I14" s="31"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="12"/>
@@ -1448,7 +1469,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
-      <c r="I15" s="32"/>
+      <c r="I15" s="31"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="14"/>
@@ -1474,7 +1495,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="32"/>
+      <c r="I16" s="31"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="12"/>
@@ -1500,7 +1521,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="32"/>
+      <c r="I17" s="31"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="12"/>
@@ -1526,7 +1547,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
-      <c r="I18" s="32"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
       <c r="L18" s="12"/>
@@ -1552,7 +1573,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
-      <c r="I19" s="32"/>
+      <c r="I19" s="31"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="12"/>
@@ -1578,7 +1599,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
       <c r="H20" s="10"/>
-      <c r="I20" s="32"/>
+      <c r="I20" s="31"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="12"/>
@@ -1604,7 +1625,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="10"/>
-      <c r="I21" s="32"/>
+      <c r="I21" s="31"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
       <c r="L21" s="12"/>
